--- a/Annexe 1 _ CCP1 DWWM.xlsx
+++ b/Annexe 1 _ CCP1 DWWM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLDeveloppement\digital-dwwm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE53C451-8827-4E38-A830-8A5AB02377DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="Réaliser des interfaces utilisa" sheetId="6" r:id="rId6"/>
     <sheet name="Développer la partie dynamique " sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
   <si>
     <t>Code module</t>
   </si>
@@ -1000,7 +1006,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1248,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1449,6 +1455,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1665,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1940,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2082,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2295,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2584,14 +2593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2754,7 +2763,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G10" s="72"/>
-      <c r="H10" t="s">
+      <c r="H10" s="90" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3023,6 +3032,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="G3:G16"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="A21:A25"/>
@@ -3030,25 +3045,21 @@
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3082,7 +3093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75">
+    <row r="3" spans="1:12" ht="89.25">
       <c r="A3" s="76" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +3103,7 @@
       <c r="C3" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="25"/>
@@ -3102,6 +3113,9 @@
       <c r="G3" s="79">
         <f>SUM(F3:F10)</f>
         <v>0.375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="102">
@@ -3116,6 +3130,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="G4" s="72"/>
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="25.5">
       <c r="A5" s="72"/>
@@ -3130,6 +3147,9 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G5" s="72"/>
+      <c r="H5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="12.75">
       <c r="A6" s="72"/>
@@ -3142,6 +3162,9 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G6" s="72"/>
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="25.5">
       <c r="A7" s="72"/>
@@ -3399,20 +3422,22 @@
     <mergeCell ref="C17:C20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4514,15 +4539,15 @@
     <mergeCell ref="C32:C39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E19" r:id="rId7"/>
-    <hyperlink ref="E26" r:id="rId8"/>
-    <hyperlink ref="E35" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="E26" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E35" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Annexe 1 _ CCP1 DWWM.xlsx
+++ b/Annexe 1 _ CCP1 DWWM.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLDeveloppement\digital-dwwm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE53C451-8827-4E38-A830-8A5AB02377DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="Réaliser des interfaces utilisa" sheetId="6" r:id="rId6"/>
     <sheet name="Développer la partie dynamique " sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="228">
   <si>
     <t>Code module</t>
   </si>
@@ -1006,7 +1000,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1078,17 +1072,18 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1251,8 +1246,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1340,7 +1336,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1366,16 +1361,16 @@
     <xf numFmtId="46" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1389,6 +1384,9 @@
     </xf>
     <xf numFmtId="46" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1451,17 +1449,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1674,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1949,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2091,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2304,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2593,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2763,7 +2760,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G10" s="72"/>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="58" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3051,14 +3048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3177,6 +3174,9 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G7" s="72"/>
+      <c r="H7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="25.5">
       <c r="A8" s="72"/>
@@ -3189,6 +3189,9 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G8" s="72"/>
+      <c r="H8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="38.25">
       <c r="A9" s="72"/>
@@ -3237,6 +3240,9 @@
       <c r="G11" s="86">
         <v>1.5833333333333333</v>
       </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="76.5">
       <c r="A12" s="72"/>
@@ -3250,6 +3256,9 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G12" s="72"/>
+      <c r="H12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
       <c r="A13" s="72"/>
@@ -3264,6 +3273,9 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G13" s="72"/>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="140.25">
       <c r="A14" s="72"/>
@@ -3276,6 +3288,9 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G14" s="72"/>
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="38.25">
       <c r="A15" s="72"/>
@@ -3289,6 +3304,9 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G15" s="72"/>
+      <c r="H15" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="38.25">
       <c r="A16" s="72"/>
@@ -3297,7 +3315,7 @@
       <c r="D16" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="90" t="s">
         <v>132</v>
       </c>
       <c r="F16" s="31">
@@ -3308,7 +3326,7 @@
         <f>G11-L16</f>
         <v>1.2916666666666665</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="41">
         <v>0.29166666666666669</v>
       </c>
     </row>
@@ -3422,14 +3440,14 @@
     <mergeCell ref="C17:C20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3478,49 +3496,49 @@
         <v>143</v>
       </c>
       <c r="C3" s="81"/>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44">
+      <c r="E3" s="42"/>
+      <c r="F3" s="43">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G3" s="79">
         <f>SUM(F3:F5)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="63.75">
       <c r="A4" s="72"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47">
+      <c r="E4" s="44"/>
+      <c r="F4" s="46">
         <v>0.15625</v>
       </c>
       <c r="G4" s="72"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="89.25">
       <c r="A5" s="74"/>
       <c r="B5" s="74"/>
       <c r="C5" s="74"/>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50">
+      <c r="E5" s="48"/>
+      <c r="F5" s="49">
         <v>0.125</v>
       </c>
       <c r="G5" s="74"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="12.75">
       <c r="A6" s="87" t="s">
@@ -3532,55 +3550,55 @@
       <c r="C6" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G6" s="86">
         <f>SUM(F6:F68)</f>
         <v>3.6666666666666661</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="38.25">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G7" s="72"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="38.25">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="74"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="49">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G8" s="72"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="76.5">
       <c r="A9" s="72"/>
@@ -3588,65 +3606,65 @@
       <c r="C9" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G9" s="72"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="89.25">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>157</v>
       </c>
       <c r="E10" s="72"/>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G10" s="72"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="76.5">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
       <c r="C11" s="72"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="72"/>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>0.14583333333333334</v>
       </c>
       <c r="G11" s="72"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="102">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G12" s="72"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="L12" s="27" t="s">
         <v>161</v>
       </c>
@@ -3655,93 +3673,93 @@
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="72"/>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G13" s="72"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="38.25">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47">
+      <c r="E14" s="44"/>
+      <c r="F14" s="46">
         <v>0.14583333333333334</v>
       </c>
       <c r="G14" s="72"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="76.5">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47">
+      <c r="E15" s="44"/>
+      <c r="F15" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G15" s="72"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:12" ht="38.25">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47">
+      <c r="E16" s="44"/>
+      <c r="F16" s="46">
         <v>0.14583333333333334</v>
       </c>
       <c r="G16" s="72"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="89.25">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47">
+      <c r="E17" s="44"/>
+      <c r="F17" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G17" s="72"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="38.25">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="74"/>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50">
+      <c r="E18" s="48"/>
+      <c r="F18" s="49">
         <v>0.20833333333333334</v>
       </c>
       <c r="G18" s="72"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="12.75">
       <c r="A19" s="72"/>
@@ -3749,200 +3767,200 @@
       <c r="C19" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G19" s="72"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="38.25">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47">
+      <c r="E20" s="44"/>
+      <c r="F20" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G20" s="72"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="76.5">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="46">
         <v>6.25E-2</v>
       </c>
       <c r="G21" s="72"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" ht="114.75">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="47">
+      <c r="E22" s="44"/>
+      <c r="F22" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G22" s="72"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="63.75">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47">
+      <c r="E23" s="44"/>
+      <c r="F23" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G23" s="72"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="63.75">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47">
+      <c r="E24" s="44"/>
+      <c r="F24" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G24" s="72"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="51">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47">
+      <c r="E25" s="44"/>
+      <c r="F25" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G25" s="72"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="38.25">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G26" s="72"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:9" ht="51">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="47">
+      <c r="E27" s="44"/>
+      <c r="F27" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G27" s="72"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" ht="89.25">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="47">
+      <c r="E28" s="44"/>
+      <c r="F28" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G28" s="72"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" s="72"/>
       <c r="B29" s="72"/>
       <c r="C29" s="72"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="47">
+      <c r="E29" s="44"/>
+      <c r="F29" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G29" s="72"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9" ht="12.75">
       <c r="A30" s="72"/>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="47">
+      <c r="E30" s="44"/>
+      <c r="F30" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G30" s="72"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" ht="51">
       <c r="A31" s="72"/>
       <c r="B31" s="72"/>
       <c r="C31" s="74"/>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50">
+      <c r="E31" s="48"/>
+      <c r="F31" s="49">
         <v>0.29166666666666669</v>
       </c>
       <c r="G31" s="72"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" ht="63.75">
       <c r="A32" s="72"/>
@@ -3950,123 +3968,123 @@
       <c r="C32" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="47">
+      <c r="E32" s="44"/>
+      <c r="F32" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G32" s="72"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="102">
       <c r="A33" s="72"/>
       <c r="B33" s="72"/>
       <c r="C33" s="72"/>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="47">
+      <c r="E33" s="44"/>
+      <c r="F33" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G33" s="72"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="63.75">
       <c r="A34" s="72"/>
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="47">
+      <c r="E34" s="44"/>
+      <c r="F34" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G34" s="72"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" ht="25.5">
       <c r="A35" s="72"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G35" s="72"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="1:9" ht="25.5">
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="47">
+      <c r="E36" s="44"/>
+      <c r="F36" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G36" s="72"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
     </row>
     <row r="37" spans="1:9" ht="25.5">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="47">
+      <c r="E37" s="44"/>
+      <c r="F37" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G37" s="72"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
     </row>
     <row r="38" spans="1:9" ht="51">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="47">
+      <c r="E38" s="44"/>
+      <c r="F38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G38" s="72"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="1:9" ht="51">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
       <c r="C39" s="74"/>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="47">
+      <c r="E39" s="48"/>
+      <c r="F39" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G39" s="72"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
     </row>
     <row r="40" spans="1:9" ht="12.75">
       <c r="A40" s="72"/>
@@ -4074,184 +4092,184 @@
       <c r="C40" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="44">
+      <c r="E40" s="44"/>
+      <c r="F40" s="43">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G40" s="72"/>
-      <c r="H40" s="47">
+      <c r="H40" s="46">
         <f>SUM(F40:F49)</f>
         <v>0.19791666666666669</v>
       </c>
-      <c r="I40" s="45"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="12.75">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="47">
+      <c r="E41" s="44"/>
+      <c r="F41" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G41" s="72"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="12.75">
       <c r="A42" s="72"/>
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="47">
+      <c r="E42" s="44"/>
+      <c r="F42" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G42" s="72"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="51">
       <c r="A43" s="72"/>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="47">
+      <c r="E43" s="44"/>
+      <c r="F43" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G43" s="72"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="38.25">
       <c r="A44" s="72"/>
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="47">
+      <c r="E44" s="44"/>
+      <c r="F44" s="46">
         <v>6.25E-2</v>
       </c>
       <c r="G44" s="72"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" ht="12.75">
       <c r="A45" s="72"/>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="47">
+      <c r="E45" s="44"/>
+      <c r="F45" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G45" s="72"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="1:9" ht="38.25">
       <c r="A46" s="72"/>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="47">
+      <c r="E46" s="44"/>
+      <c r="F46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G46" s="72"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:9" ht="38.25">
       <c r="A47" s="72"/>
       <c r="B47" s="72"/>
       <c r="C47" s="72"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="47">
+      <c r="E47" s="44"/>
+      <c r="F47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G47" s="72"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
     </row>
     <row r="48" spans="1:9" ht="51">
       <c r="A48" s="72"/>
       <c r="B48" s="72"/>
       <c r="C48" s="72"/>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="47">
+      <c r="E48" s="44"/>
+      <c r="F48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G48" s="72"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" ht="12.75">
       <c r="A49" s="72"/>
       <c r="B49" s="72"/>
       <c r="C49" s="72"/>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="47">
+      <c r="E49" s="44"/>
+      <c r="F49" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G49" s="72"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" ht="25.5">
       <c r="A50" s="72"/>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="47">
+      <c r="E50" s="44"/>
+      <c r="F50" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G50" s="72"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" ht="51">
       <c r="A51" s="72"/>
       <c r="B51" s="72"/>
       <c r="C51" s="74"/>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="55">
+      <c r="E51" s="48"/>
+      <c r="F51" s="54">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G51" s="72"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
     </row>
     <row r="52" spans="1:9" ht="51">
       <c r="A52" s="72"/>
@@ -4259,121 +4277,121 @@
       <c r="C52" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="44">
+      <c r="E52" s="44"/>
+      <c r="F52" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G52" s="72"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" ht="38.25">
       <c r="A53" s="72"/>
       <c r="B53" s="72"/>
       <c r="C53" s="72"/>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="47">
+      <c r="E53" s="44"/>
+      <c r="F53" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G53" s="72"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
     </row>
     <row r="54" spans="1:9" ht="25.5">
       <c r="A54" s="72"/>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="47">
+      <c r="E54" s="44"/>
+      <c r="F54" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G54" s="72"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
     </row>
     <row r="55" spans="1:9" ht="51">
       <c r="A55" s="72"/>
       <c r="B55" s="72"/>
       <c r="C55" s="72"/>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="47">
+      <c r="E55" s="44"/>
+      <c r="F55" s="46">
         <v>0.20833333333333334</v>
       </c>
       <c r="G55" s="72"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
     </row>
     <row r="56" spans="1:9" ht="25.5">
       <c r="A56" s="72"/>
       <c r="B56" s="72"/>
       <c r="C56" s="72"/>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="47">
+      <c r="E56" s="44"/>
+      <c r="F56" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G56" s="72"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9" ht="153">
       <c r="A57" s="72"/>
       <c r="B57" s="72"/>
       <c r="C57" s="72"/>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="47">
+      <c r="E57" s="44"/>
+      <c r="F57" s="46">
         <v>6.25E-2</v>
       </c>
       <c r="G57" s="72"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
     </row>
     <row r="58" spans="1:9" ht="51">
       <c r="A58" s="72"/>
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="47">
+      <c r="E58" s="44"/>
+      <c r="F58" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G58" s="72"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" ht="63.75">
       <c r="A59" s="72"/>
       <c r="B59" s="72"/>
       <c r="C59" s="74"/>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="47">
+      <c r="E59" s="48"/>
+      <c r="F59" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G59" s="72"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" ht="38.25">
       <c r="A60" s="72"/>
@@ -4381,141 +4399,141 @@
       <c r="C60" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="44">
+      <c r="E60" s="44"/>
+      <c r="F60" s="43">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="G60" s="72"/>
-      <c r="H60" s="47">
+      <c r="H60" s="46">
         <f>SUM(F60:F63)</f>
         <v>0.12847222222222221</v>
       </c>
-      <c r="I60" s="45"/>
+      <c r="I60" s="44"/>
     </row>
     <row r="61" spans="1:9" ht="25.5">
       <c r="A61" s="72"/>
       <c r="B61" s="72"/>
       <c r="C61" s="72"/>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="47">
+      <c r="E61" s="44"/>
+      <c r="F61" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G61" s="72"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
     </row>
     <row r="62" spans="1:9" ht="25.5">
       <c r="A62" s="72"/>
       <c r="B62" s="72"/>
       <c r="C62" s="72"/>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="47">
+      <c r="E62" s="44"/>
+      <c r="F62" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G62" s="72"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
     </row>
     <row r="63" spans="1:9" ht="63.75">
       <c r="A63" s="72"/>
       <c r="B63" s="72"/>
       <c r="C63" s="72"/>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="47">
+      <c r="E63" s="44"/>
+      <c r="F63" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G63" s="72"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
     </row>
     <row r="64" spans="1:9" ht="89.25">
       <c r="A64" s="72"/>
       <c r="B64" s="72"/>
       <c r="C64" s="72"/>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="47">
+      <c r="E64" s="44"/>
+      <c r="F64" s="46">
         <v>0.125</v>
       </c>
       <c r="G64" s="72"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
     </row>
     <row r="65" spans="1:9" ht="51">
       <c r="A65" s="72"/>
       <c r="B65" s="72"/>
       <c r="C65" s="72"/>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="47">
+      <c r="E65" s="44"/>
+      <c r="F65" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G65" s="72"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
     </row>
     <row r="66" spans="1:9" ht="76.5">
       <c r="A66" s="72"/>
       <c r="B66" s="72"/>
       <c r="C66" s="72"/>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="47">
+      <c r="E66" s="44"/>
+      <c r="F66" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G66" s="72"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
     </row>
     <row r="67" spans="1:9" ht="76.5">
       <c r="A67" s="72"/>
       <c r="B67" s="72"/>
       <c r="C67" s="74"/>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="47">
+      <c r="E67" s="48"/>
+      <c r="F67" s="46">
         <v>0.125</v>
       </c>
       <c r="G67" s="72"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" ht="127.5">
       <c r="A68" s="72"/>
       <c r="B68" s="74"/>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="58">
+      <c r="E68" s="48"/>
+      <c r="F68" s="57">
         <v>0.29166666666666669</v>
       </c>
       <c r="G68" s="74"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
     </row>
     <row r="69" spans="1:9" ht="12.75">
       <c r="F69" s="25"/>
@@ -4539,15 +4557,15 @@
     <mergeCell ref="C32:C39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="E26" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="E35" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E19" r:id="rId7"/>
+    <hyperlink ref="E26" r:id="rId8"/>
+    <hyperlink ref="E35" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Annexe 1 _ CCP1 DWWM.xlsx
+++ b/Annexe 1 _ CCP1 DWWM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="228">
   <si>
     <t>Code module</t>
   </si>
@@ -1388,6 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1455,7 +1456,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1746,10 +1746,10 @@
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="66" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1761,14 +1761,14 @@
       <c r="G5" s="7">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="67">
         <f>SUM(G5:G6)</f>
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1778,13 +1778,13 @@
       <c r="G6" s="7">
         <v>0.4375</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="70" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1796,14 +1796,14 @@
       <c r="G7" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="71">
         <f>SUM(G7:G9)</f>
         <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1813,11 +1813,11 @@
       <c r="G8" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1827,13 +1827,13 @@
       <c r="G9" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H9" s="64"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="66" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1845,14 +1845,14 @@
       <c r="G10" s="7">
         <v>0.375</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="67">
         <f>SUM(G10:G11)</f>
         <v>1.9583333333333333</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1862,13 +1862,13 @@
       <c r="G11" s="7">
         <v>1.5833333333333333</v>
       </c>
-      <c r="H11" s="64"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="70" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1880,14 +1880,14 @@
       <c r="G12" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="71">
         <f>SUM(G12:G13)</f>
         <v>3.958333333333333</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -1897,28 +1897,28 @@
       <c r="G13" s="13">
         <v>3.6666666666666665</v>
       </c>
-      <c r="H13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="14">
         <f>SUM(H3:H14)</f>
         <v>7.520833333333333</v>
@@ -1992,13 +1992,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="74" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -2013,15 +2013,15 @@
       <c r="G3" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="76">
         <f>SUM(G3:G6)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72.75" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="19" t="s">
         <v>52</v>
       </c>
@@ -2034,11 +2034,11 @@
       <c r="G4" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="21" t="s">
         <v>54</v>
       </c>
@@ -2054,11 +2054,11 @@
       <c r="G5" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="22" t="s">
         <v>57</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="G6" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2128,13 +2128,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
@@ -2142,75 +2142,75 @@
       <c r="F3" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="80">
         <f>SUM(F3:F9)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="89.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="51">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="27" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" ht="76.5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="27" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" ht="89.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="27" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" ht="63.75">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="29" t="s">
         <v>66</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="F9" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="D10" s="27"/>
@@ -2343,13 +2343,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="51">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -2359,27 +2359,27 @@
       <c r="F3" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="80">
         <f>SUM(F3:F8)</f>
         <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="38.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="29" t="s">
         <v>70</v>
       </c>
@@ -2387,12 +2387,12 @@
       <c r="F5" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="63.75">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="82" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="83" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -2401,40 +2401,40 @@
       <c r="F6" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" ht="38.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="27" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="28">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="25" t="s">
         <v>75</v>
       </c>
@@ -2442,123 +2442,123 @@
       <c r="F9" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="80">
         <f>SUM(F9:F20)</f>
         <v>0.4375</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="51">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="27" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="33" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:7" ht="38.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7" ht="25.5">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="34" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:7" ht="89.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="27" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="28">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="35" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="51">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="34" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="36" t="s">
         <v>85</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="F19" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G19" s="74"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
       <c r="D20" s="37" t="s">
@@ -2632,13 +2632,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -2648,7 +2648,7 @@
       <c r="F3" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="80">
         <f>SUM(F3:F16)</f>
         <v>0.35416666666666663</v>
       </c>
@@ -2657,69 +2657,69 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="37" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="73"/>
       <c r="H4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="37" t="s">
         <v>90</v>
       </c>
       <c r="F5" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F6" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="H6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="73"/>
       <c r="H7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="30" t="s">
         <v>93</v>
       </c>
@@ -2727,15 +2727,15 @@
       <c r="F8" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="73"/>
       <c r="H8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="83" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="84" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="37" t="s">
@@ -2744,45 +2744,45 @@
       <c r="F9" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="73"/>
       <c r="H9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="153">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="27" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="58" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="37" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="73"/>
       <c r="H11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="76.5">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="81" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="82" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -2792,48 +2792,48 @@
       <c r="F12" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="27" t="s">
         <v>100</v>
       </c>
       <c r="F13" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:8" ht="25.5">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="27" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:8" ht="89.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="27" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:8" ht="63.75">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="36" t="s">
         <v>103</v>
       </c>
@@ -2841,55 +2841,55 @@
       <c r="F16" s="28">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="1:7" ht="25.5">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="27" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="87">
         <f>SUM(F17:F20)</f>
         <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="27" t="s">
         <v>105</v>
       </c>
       <c r="F18" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="38.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="34" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="63.75">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="36" t="s">
         <v>107</v>
       </c>
@@ -2897,13 +2897,13 @@
       <c r="F20" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="G20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" ht="159.75" customHeight="1">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="38"/>
@@ -2913,14 +2913,14 @@
       <c r="F21" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="87">
         <f>SUM(F21:F25)</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="38.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="38"/>
       <c r="D22" s="34" t="s">
         <v>109</v>
@@ -2928,11 +2928,11 @@
       <c r="F22" s="28">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7" ht="38.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="38"/>
       <c r="D23" s="34" t="s">
         <v>110</v>
@@ -2940,11 +2940,11 @@
       <c r="F23" s="28">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7" ht="38.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="38"/>
       <c r="D24" s="34" t="s">
         <v>111</v>
@@ -2952,11 +2952,11 @@
       <c r="F24" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7" ht="25.5">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="39"/>
       <c r="D25" s="36" t="s">
         <v>112</v>
@@ -2965,7 +2965,7 @@
       <c r="F25" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="G25" s="74"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
       <c r="D26" s="27"/>
@@ -3029,12 +3029,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="A21:A25"/>
@@ -3042,6 +3036,12 @@
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="G3:G16"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3054,8 +3054,8 @@
   </sheetPr>
   <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3091,13 +3091,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="89.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -3107,7 +3107,7 @@
       <c r="F3" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="80">
         <f>SUM(F3:F10)</f>
         <v>0.375</v>
       </c>
@@ -3116,9 +3116,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="102">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="29" t="s">
         <v>115</v>
       </c>
@@ -3126,15 +3126,15 @@
       <c r="F4" s="31">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="73"/>
       <c r="H4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="25.5">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="84" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -3143,60 +3143,60 @@
       <c r="F5" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="37" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="H6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25.5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="27" t="s">
         <v>119</v>
       </c>
       <c r="F7" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="73"/>
       <c r="H7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25.5">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="27" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="28">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="73"/>
       <c r="H8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="38.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="82" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="40" t="s">
@@ -3206,12 +3206,12 @@
       <c r="F9" s="26">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:12" ht="25.5">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="36" t="s">
         <v>123</v>
       </c>
@@ -3219,16 +3219,16 @@
       <c r="F10" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" spans="1:12" ht="89.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="84" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3237,7 +3237,7 @@
       <c r="F11" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="87">
         <v>1.5833333333333333</v>
       </c>
       <c r="H11" t="s">
@@ -3245,9 +3245,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="76.5">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="29" t="s">
         <v>126</v>
       </c>
@@ -3255,15 +3255,15 @@
       <c r="F12" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="73"/>
       <c r="H12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="83" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="84" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -3272,30 +3272,30 @@
       <c r="F13" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="140.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="27" t="s">
         <v>129</v>
       </c>
       <c r="F14" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="73"/>
       <c r="H14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="38.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="27" t="s">
         <v>130</v>
       </c>
@@ -3303,25 +3303,25 @@
       <c r="F15" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="73"/>
       <c r="H15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="38.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="59" t="s">
         <v>132</v>
       </c>
       <c r="F16" s="31">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="73"/>
       <c r="K16" s="28">
         <f>G11-L16</f>
         <v>1.2916666666666665</v>
@@ -3330,10 +3330,10 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="140.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="82" t="s">
+    <row r="17" spans="1:8" ht="140.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="83" t="s">
         <v>133</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -3342,36 +3342,45 @@
       <c r="F17" s="28">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G17" s="72"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="27" t="s">
         <v>135</v>
       </c>
       <c r="F18" s="28">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" ht="38.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="38.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="27" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="28">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G19" s="72"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="74"/>
+      <c r="G19" s="73"/>
+      <c r="H19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="29" t="s">
         <v>137</v>
       </c>
@@ -3379,11 +3388,11 @@
       <c r="F20" s="31">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" ht="89.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="1:8" ht="89.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="32" t="s">
         <v>138</v>
       </c>
@@ -3393,12 +3402,15 @@
       <c r="F21" s="28">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="1:7" ht="38.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="81" t="s">
+      <c r="G21" s="73"/>
+      <c r="H21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="38.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="82" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="40" t="s">
@@ -3408,12 +3420,12 @@
       <c r="F22" s="26">
         <v>0.25</v>
       </c>
-      <c r="G22" s="72"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
+      <c r="G22" s="73"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="36" t="s">
         <v>142</v>
       </c>
@@ -3421,7 +3433,7 @@
       <c r="F23" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="G23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3453,8 +3465,8 @@
   </sheetPr>
   <dimension ref="A2:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3489,13 +3501,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="42" t="s">
         <v>144</v>
       </c>
@@ -3503,7 +3515,7 @@
       <c r="F3" s="43">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="80">
         <f>SUM(F3:F5)</f>
         <v>0.29166666666666663</v>
       </c>
@@ -3511,9 +3523,9 @@
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="63.75">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="45" t="s">
         <v>145</v>
       </c>
@@ -3521,14 +3533,14 @@
       <c r="F4" s="46">
         <v>0.15625</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="89.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="47" t="s">
         <v>146</v>
       </c>
@@ -3536,18 +3548,18 @@
       <c r="F5" s="49">
         <v>0.125</v>
       </c>
-      <c r="G5" s="74"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="12.75">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -3559,17 +3571,19 @@
       <c r="F6" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="87">
         <f>SUM(F6:F68)</f>
         <v>3.6666666666666661</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:12" ht="38.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="51" t="s">
         <v>150</v>
       </c>
@@ -3579,14 +3593,14 @@
       <c r="F7" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="38.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="47" t="s">
         <v>152</v>
       </c>
@@ -3596,63 +3610,69 @@
       <c r="F8" s="49">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="73"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="76.5">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="83" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="84" t="s">
         <v>154</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="89" t="s">
         <v>156</v>
       </c>
       <c r="F9" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="44"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="89.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="76.5">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="46">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="102">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="51" t="s">
         <v>159</v>
       </c>
@@ -3662,7 +3682,7 @@
       <c r="F12" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="L12" s="27" t="s">
@@ -3670,9 +3690,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="89.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="45" t="s">
         <v>162</v>
       </c>
@@ -3682,14 +3702,16 @@
       <c r="F13" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="38.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="51" t="s">
         <v>164</v>
       </c>
@@ -3697,14 +3719,14 @@
       <c r="F14" s="46">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:12" ht="76.5">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="45" t="s">
         <v>165</v>
       </c>
@@ -3712,14 +3734,16 @@
       <c r="F15" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:12" ht="38.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="51" t="s">
         <v>166</v>
       </c>
@@ -3727,14 +3751,14 @@
       <c r="F16" s="46">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="89.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="45" t="s">
         <v>167</v>
       </c>
@@ -3742,14 +3766,16 @@
       <c r="F17" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="38.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="47" t="s">
         <v>168</v>
       </c>
@@ -3757,14 +3783,14 @@
       <c r="F18" s="49">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:9" ht="12.75">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="82" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="83" t="s">
         <v>169</v>
       </c>
       <c r="D19" s="44" t="s">
@@ -3776,14 +3802,16 @@
       <c r="F19" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="38.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="45" t="s">
         <v>171</v>
       </c>
@@ -3791,14 +3819,14 @@
       <c r="F20" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="76.5">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="51" t="s">
         <v>172</v>
       </c>
@@ -3806,14 +3834,14 @@
       <c r="F21" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" ht="114.75">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="45" t="s">
         <v>173</v>
       </c>
@@ -3821,14 +3849,14 @@
       <c r="F22" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" ht="63.75">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="51" t="s">
         <v>174</v>
       </c>
@@ -3836,14 +3864,14 @@
       <c r="F23" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="63.75">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="45" t="s">
         <v>175</v>
       </c>
@@ -3851,14 +3879,14 @@
       <c r="F24" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="51">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="51" t="s">
         <v>176</v>
       </c>
@@ -3866,14 +3894,14 @@
       <c r="F25" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" ht="38.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="45" t="s">
         <v>177</v>
       </c>
@@ -3883,14 +3911,16 @@
       <c r="F26" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:9" ht="51">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="45" t="s">
         <v>179</v>
       </c>
@@ -3898,14 +3928,16 @@
       <c r="F27" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" ht="89.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="45" t="s">
         <v>180</v>
       </c>
@@ -3913,14 +3945,16 @@
       <c r="F28" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="44"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="51">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="45" t="s">
         <v>181</v>
       </c>
@@ -3928,14 +3962,14 @@
       <c r="F29" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9" ht="12.75">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="44" t="s">
         <v>182</v>
       </c>
@@ -3943,14 +3977,14 @@
       <c r="F30" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G30" s="72"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" ht="51">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="74"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="47" t="s">
         <v>183</v>
       </c>
@@ -3958,14 +3992,14 @@
       <c r="F31" s="49">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G31" s="72"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" ht="63.75">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="83" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="84" t="s">
         <v>184</v>
       </c>
       <c r="D32" s="45" t="s">
@@ -3975,14 +4009,14 @@
       <c r="F32" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G32" s="72"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="102">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="51" t="s">
         <v>186</v>
       </c>
@@ -3990,14 +4024,14 @@
       <c r="F33" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="63.75">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="45" t="s">
         <v>187</v>
       </c>
@@ -4005,14 +4039,14 @@
       <c r="F34" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G34" s="72"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" ht="25.5">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="51" t="s">
         <v>188</v>
       </c>
@@ -4022,14 +4056,14 @@
       <c r="F35" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G35" s="72"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
     <row r="36" spans="1:9" ht="25.5">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="45" t="s">
         <v>190</v>
       </c>
@@ -4037,14 +4071,14 @@
       <c r="F36" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G36" s="72"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
     <row r="37" spans="1:9" ht="25.5">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="51" t="s">
         <v>191</v>
       </c>
@@ -4052,14 +4086,14 @@
       <c r="F37" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G37" s="72"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
     <row r="38" spans="1:9" ht="51">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="45" t="s">
         <v>192</v>
       </c>
@@ -4067,14 +4101,14 @@
       <c r="F38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G38" s="72"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
     <row r="39" spans="1:9" ht="51">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="74"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="47" t="s">
         <v>193</v>
       </c>
@@ -4082,14 +4116,14 @@
       <c r="F39" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
     </row>
     <row r="40" spans="1:9" ht="12.75">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="82" t="s">
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="83" t="s">
         <v>194</v>
       </c>
       <c r="D40" s="44" t="s">
@@ -4099,17 +4133,19 @@
       <c r="F40" s="43">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="46">
         <f>SUM(F40:F49)</f>
         <v>0.19791666666666669</v>
       </c>
-      <c r="I40" s="44"/>
+      <c r="I40" s="44" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="12.75">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="44" t="s">
         <v>196</v>
       </c>
@@ -4117,14 +4153,16 @@
       <c r="F41" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G41" s="72"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
+      <c r="I41" s="44" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="12.75">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="44" t="s">
         <v>197</v>
       </c>
@@ -4132,14 +4170,14 @@
       <c r="F42" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G42" s="72"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="51">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="45" t="s">
         <v>198</v>
       </c>
@@ -4147,14 +4185,14 @@
       <c r="F43" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G43" s="72"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="38.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="51" t="s">
         <v>199</v>
       </c>
@@ -4162,14 +4200,14 @@
       <c r="F44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="G44" s="72"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" ht="12.75">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="44" t="s">
         <v>200</v>
       </c>
@@ -4177,14 +4215,14 @@
       <c r="F45" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G45" s="72"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
     <row r="46" spans="1:9" ht="38.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="45" t="s">
         <v>201</v>
       </c>
@@ -4192,14 +4230,14 @@
       <c r="F46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:9" ht="38.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="51" t="s">
         <v>202</v>
       </c>
@@ -4207,14 +4245,14 @@
       <c r="F47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G47" s="72"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
     <row r="48" spans="1:9" ht="51">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="51" t="s">
         <v>203</v>
       </c>
@@ -4222,14 +4260,14 @@
       <c r="F48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G48" s="72"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" ht="12.75">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="45" t="s">
         <v>204</v>
       </c>
@@ -4237,14 +4275,14 @@
       <c r="F49" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G49" s="72"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" ht="25.5">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="45" t="s">
         <v>205</v>
       </c>
@@ -4252,14 +4290,14 @@
       <c r="F50" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G50" s="72"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" ht="51">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="74"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="47" t="s">
         <v>206</v>
       </c>
@@ -4267,14 +4305,14 @@
       <c r="F51" s="54">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G51" s="72"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
     </row>
     <row r="52" spans="1:9" ht="51">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="83" t="s">
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="84" t="s">
         <v>207</v>
       </c>
       <c r="D52" s="45" t="s">
@@ -4284,14 +4322,14 @@
       <c r="F52" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G52" s="72"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" ht="38.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="51" t="s">
         <v>209</v>
       </c>
@@ -4299,14 +4337,14 @@
       <c r="F53" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G53" s="72"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
     </row>
     <row r="54" spans="1:9" ht="25.5">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="45" t="s">
         <v>210</v>
       </c>
@@ -4314,14 +4352,14 @@
       <c r="F54" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G54" s="72"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
     </row>
     <row r="55" spans="1:9" ht="51">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
       <c r="D55" s="51" t="s">
         <v>211</v>
       </c>
@@ -4329,14 +4367,14 @@
       <c r="F55" s="46">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G55" s="72"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
     </row>
     <row r="56" spans="1:9" ht="25.5">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="45" t="s">
         <v>212</v>
       </c>
@@ -4344,14 +4382,14 @@
       <c r="F56" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9" ht="153">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="51" t="s">
         <v>213</v>
       </c>
@@ -4359,14 +4397,14 @@
       <c r="F57" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="G57" s="72"/>
+      <c r="G57" s="73"/>
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
     <row r="58" spans="1:9" ht="51">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="45" t="s">
         <v>214</v>
       </c>
@@ -4374,14 +4412,14 @@
       <c r="F58" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G58" s="72"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" ht="63.75">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="74"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="47" t="s">
         <v>215</v>
       </c>
@@ -4389,14 +4427,14 @@
       <c r="F59" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G59" s="72"/>
+      <c r="G59" s="73"/>
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" ht="38.25">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="82" t="s">
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="83" t="s">
         <v>216</v>
       </c>
       <c r="D60" s="45" t="s">
@@ -4406,7 +4444,7 @@
       <c r="F60" s="43">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G60" s="72"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="46">
         <f>SUM(F60:F63)</f>
         <v>0.12847222222222221</v>
@@ -4414,9 +4452,9 @@
       <c r="I60" s="44"/>
     </row>
     <row r="61" spans="1:9" ht="25.5">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="45" t="s">
         <v>218</v>
       </c>
@@ -4424,14 +4462,14 @@
       <c r="F61" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G61" s="72"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
     </row>
     <row r="62" spans="1:9" ht="25.5">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="45" t="s">
         <v>219</v>
       </c>
@@ -4439,14 +4477,14 @@
       <c r="F62" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G62" s="72"/>
+      <c r="G62" s="73"/>
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
     </row>
     <row r="63" spans="1:9" ht="63.75">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
       <c r="D63" s="51" t="s">
         <v>220</v>
       </c>
@@ -4454,14 +4492,14 @@
       <c r="F63" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G63" s="72"/>
+      <c r="G63" s="73"/>
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
     </row>
     <row r="64" spans="1:9" ht="89.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="45" t="s">
         <v>221</v>
       </c>
@@ -4469,14 +4507,14 @@
       <c r="F64" s="46">
         <v>0.125</v>
       </c>
-      <c r="G64" s="72"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
     </row>
     <row r="65" spans="1:9" ht="51">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
       <c r="D65" s="51" t="s">
         <v>222</v>
       </c>
@@ -4484,14 +4522,14 @@
       <c r="F65" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
     </row>
     <row r="66" spans="1:9" ht="76.5">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="45" t="s">
         <v>223</v>
       </c>
@@ -4499,14 +4537,14 @@
       <c r="F66" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G66" s="72"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
     </row>
     <row r="67" spans="1:9" ht="76.5">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="74"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="75"/>
       <c r="D67" s="47" t="s">
         <v>224</v>
       </c>
@@ -4514,13 +4552,13 @@
       <c r="F67" s="46">
         <v>0.125</v>
       </c>
-      <c r="G67" s="72"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" ht="127.5">
-      <c r="A68" s="72"/>
-      <c r="B68" s="74"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="55" t="s">
         <v>225</v>
       </c>
@@ -4531,7 +4569,7 @@
       <c r="F68" s="57">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G68" s="74"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="44"/>
       <c r="I68" s="44"/>
     </row>

--- a/Annexe 1 _ CCP1 DWWM.xlsx
+++ b/Annexe 1 _ CCP1 DWWM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="228">
   <si>
     <t>Code module</t>
   </si>
@@ -3029,6 +3029,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="G3:G16"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="A21:A25"/>
@@ -3036,12 +3042,6 @@
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3465,8 +3465,8 @@
   </sheetPr>
   <dimension ref="A2:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3767,9 +3767,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G17" s="73"/>
-      <c r="H17" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="38.25">
@@ -3929,9 +3927,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G27" s="73"/>
-      <c r="H27" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" ht="89.25">
@@ -3946,9 +3942,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G28" s="73"/>
-      <c r="H28" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="H28" s="44"/>
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="51">

--- a/Annexe 1 _ CCP1 DWWM.xlsx
+++ b/Annexe 1 _ CCP1 DWWM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RLDeveloppement\digital-dwwm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7566814A-6AA3-422A-A8F6-8B767D834AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="-25545" yWindow="855" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="Réaliser des interfaces utilisa" sheetId="6" r:id="rId6"/>
     <sheet name="Développer la partie dynamique " sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="228">
   <si>
     <t>Code module</t>
   </si>
@@ -1000,7 +1006,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1671,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1946,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2088,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2301,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2590,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3048,14 +3054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3330,7 +3336,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="140.25">
+    <row r="17" spans="1:7" ht="140.25">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="83" t="s">
@@ -3343,11 +3349,8 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G17" s="73"/>
-      <c r="H17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5">
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -3358,11 +3361,8 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G18" s="73"/>
-      <c r="H18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="38.25">
+    </row>
+    <row r="19" spans="1:7" ht="38.25">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -3373,11 +3373,8 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G19" s="73"/>
-      <c r="H19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25.5">
+    </row>
+    <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="75"/>
@@ -3390,7 +3387,7 @@
       </c>
       <c r="G20" s="73"/>
     </row>
-    <row r="21" spans="1:8" ht="89.25">
+    <row r="21" spans="1:7" ht="89.25">
       <c r="A21" s="73"/>
       <c r="B21" s="73"/>
       <c r="C21" s="32" t="s">
@@ -3403,11 +3400,8 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="G21" s="73"/>
-      <c r="H21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="38.25">
+    </row>
+    <row r="22" spans="1:7" ht="38.25">
       <c r="A22" s="73"/>
       <c r="B22" s="73"/>
       <c r="C22" s="82" t="s">
@@ -3422,7 +3416,7 @@
       </c>
       <c r="G22" s="73"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5">
+    <row r="23" spans="1:7" ht="25.5">
       <c r="A23" s="75"/>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -3452,21 +3446,21 @@
     <mergeCell ref="C17:C20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3519,7 +3513,9 @@
         <f>SUM(F3:F5)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="63.75">
@@ -3534,7 +3530,9 @@
         <v>0.15625</v>
       </c>
       <c r="G4" s="73"/>
-      <c r="H4" s="44"/>
+      <c r="H4" s="44" t="s">
+        <v>227</v>
+      </c>
       <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="89.25">
@@ -4132,9 +4130,7 @@
         <f>SUM(F40:F49)</f>
         <v>0.19791666666666669</v>
       </c>
-      <c r="I40" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="12.75">
       <c r="A41" s="73"/>
@@ -4149,9 +4145,7 @@
       </c>
       <c r="G41" s="73"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="44" t="s">
-        <v>227</v>
-      </c>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="12.75">
       <c r="A42" s="73"/>
@@ -4589,15 +4583,15 @@
     <mergeCell ref="C32:C39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E19" r:id="rId7"/>
-    <hyperlink ref="E26" r:id="rId8"/>
-    <hyperlink ref="E35" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="E26" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E35" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
